--- a/biology/Médecine/Stuart_Kauffman/Stuart_Kauffman.xlsx
+++ b/biology/Médecine/Stuart_Kauffman/Stuart_Kauffman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stuart Alan Kauffman, né le 28 septembre 1939, est un médecin américain, biologiste théorique et chercheur sur les systèmes complexes qui étudie l’origine de la vie sur Terre.
-Il est actuellement professeur émérite de biochimie à l’Université de Pennsylvanie et professeur affilié à l’Institute for Systems Biology[1].
+Il est actuellement professeur émérite de biochimie à l’Université de Pennsylvanie et professeur affilié à l’Institute for Systems Biology.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stuart Kauffman est surtout connu pour avoir soutenu que la complexité des systèmes biologiques et des organismes pourrait résulter autant de l’auto-organisation et de la dynamique loin de l’équilibre que de la sélection naturelle darwinienne, comme discuté dans son livre Origins of Order (1993).
 En 1967 et 1969, il a utilisé des réseaux booléens aléatoires pour étudier les propriétés génériques auto-organisées des réseaux de régulation des gènes, proposant que les types cellulaires sont des attracteurs dynamiques dans les réseaux de régulation des gènes et que la différenciation cellulaire peut être comprise comme des transitions entre les attracteurs. Des preuves récentes suggèrent que les types de cellules chez les humains et d’autres organismes sont des attracteurs.
-En 1971, il a suggéré qu’un zygote pourrait ne pas être en mesure d’accéder à tous les attracteurs de type cellulaire dans son réseau de régulation génique pendant le développement et que certains des types de cellules inaccessibles sur le plan du développement pourraient être des types de cellules cancéreuses. Cela suggérait la possibilité d’une « thérapie de différenciation du cancer ». Il a également proposé l’émergence auto-organisée d’ensembles autocatalytiques collectifs de polymères, en particulier de peptides, pour l’origine de la reproduction moléculaire qui ont trouvé un soutien expérimental[2].
-Il a été professeur à l’Université de Chicago, à l’Université de Pennsylvanie et à l’Université de Calgary[3].
+En 1971, il a suggéré qu’un zygote pourrait ne pas être en mesure d’accéder à tous les attracteurs de type cellulaire dans son réseau de régulation génique pendant le développement et que certains des types de cellules inaccessibles sur le plan du développement pourraient être des types de cellules cancéreuses. Cela suggérait la possibilité d’une « thérapie de différenciation du cancer ». Il a également proposé l’émergence auto-organisée d’ensembles autocatalytiques collectifs de polymères, en particulier de peptides, pour l’origine de la reproduction moléculaire qui ont trouvé un soutien expérimental.
+Il a été professeur à l’Université de Chicago, à l’Université de Pennsylvanie et à l’Université de Calgary.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Ouvrages &amp; publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stuart Kauffman (trad. de l'anglais), Réinventer le sacré : Une nouvelle vision de la scence, de la raison et de la religion, Dervy, coll. « Sciences et spiritualités », 2013, 430 p..
-Stuart Kauffman (trad. de l'anglais par Julien Bambaggi), Au-delà de la physique : un nouveau regard sur l'origine de la vie, Dunod, coll. « Quai des sciences », 2021, 194 p., 21,6 × 14 cm[4].</t>
+Stuart Kauffman (trad. de l'anglais par Julien Bambaggi), Au-delà de la physique : un nouveau regard sur l'origine de la vie, Dunod, coll. « Quai des sciences », 2021, 194 p., 21,6 × 14 cm.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stuart Kauffman a reçu un certain nombre de prix, y compris la médaille Wiener et une bourse MacArthur[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stuart Kauffman a reçu un certain nombre de prix, y compris la médaille Wiener et une bourse MacArthur.
 </t>
         </is>
       </c>
